--- a/public/cohort/fileExcel/xlsxUIT/OPEN/GS_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/GS_OPEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -914,7 +914,7 @@
     <t>mavo?</t>
   </si>
   <si>
-    <t>Staatsinrichting. De industriÃ«le samenleving in Nederland</t>
+    <t>Staatsinrichting. De industriële samenleving in Nederland en Eerste Wereldoorlog</t>
   </si>
   <si>
     <t>GS/K/1, GS/K/2, GS/K/3, GS/K/5, GS/K/6, GS/V/7</t>
@@ -930,6 +930,9 @@
   </si>
   <si>
     <t>GS/K/1, GS/K/2, GS/K/3, GS/K/8, GS/K/9, GS/V/7</t>
+  </si>
+  <si>
+    <t>Staatsinrichting. De industriële samenleving in Nederland</t>
   </si>
   <si>
     <t>H</t>
@@ -953,10 +956,16 @@
     <t>PW tijdvak 5 t/m 9</t>
   </si>
   <si>
-    <t>Tijdvak 5 t/m 10, Thema Europese samenwerking</t>
+    <t xml:space="preserve">Tijdvak 5 t/m 10, Thema Koude Oorlog </t>
   </si>
   <si>
     <t>A, B, C</t>
+  </si>
+  <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>Tijdvak 5 t/m 10, Thema Europese samenwerking</t>
   </si>
   <si>
     <t>Historische context Britse Rijk 1585-1900; Tijdvak 5 t/m 8</t>
@@ -974,6 +983,27 @@
     <t xml:space="preserve">Historische context Nederland. Tijdvak 5 t/m 10 1948-2008 </t>
   </si>
   <si>
+    <t>PO tijdvak 1 en 2</t>
+  </si>
+  <si>
+    <t>pw tijdvak 1 en 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historisch thema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historische vaardigheden: Bronvaardigheden en oriëntatiekennis. De rol van personen in de geschiedenis. </t>
+  </si>
+  <si>
+    <t>C Thema: biografie</t>
+  </si>
+  <si>
+    <t>pw tijdvak 3 en 4</t>
+  </si>
+  <si>
+    <t>pw tijdvak 5 en 6 en 1 t/m 4</t>
+  </si>
+  <si>
     <t>so tijdvak 1 en 2</t>
   </si>
   <si>
@@ -983,31 +1013,52 @@
     <t>pw tijdvak 4 en 5 en KA  1 t/5</t>
   </si>
   <si>
-    <t xml:space="preserve">Historische vaardigheden: Bronvaardigheden en oriÃ«ntatiekennis. De rol van personen in de geschiedenis. </t>
-  </si>
-  <si>
     <t>C Thema: historische personen</t>
   </si>
   <si>
     <t>proefwerk tijdvak 6 en KA 1 t/m 6</t>
   </si>
   <si>
-    <t xml:space="preserve">PW Tijdvak 6 en 7 </t>
+    <t xml:space="preserve">PW Tijdvak 4 t/m 7 </t>
   </si>
   <si>
     <t>PW Tijdvak 8 en 1 t/m 7</t>
   </si>
   <si>
-    <t>Historische vaardigheden: Bronvaardigheden en oriÃ«ntatiekennis</t>
+    <t>Historische vaardigheden: Bronvaardigheden en oriëntatiekennis</t>
   </si>
   <si>
-    <t>C: Keizers in verval, E</t>
+    <t>C: Archief E</t>
   </si>
   <si>
     <t>PW Tijdvak 9 en 1 t/m 8</t>
   </si>
   <si>
     <t>PW Tijdvak 9 en 10  en 1 t/m 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW Tijdvak 6 en 7 </t>
+  </si>
+  <si>
+    <t>C: Keizers in verval, E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historische context: Steden en burgers in de Lage Landen en historische context Verlichting. </t>
+  </si>
+  <si>
+    <t>C: Wereldeconomie C: Verlichting in de Republiek, C: Migratie</t>
+  </si>
+  <si>
+    <t>Historische context: Duitsland in Europa. Tijdvak 1 t/m 10</t>
+  </si>
+  <si>
+    <t>C: Europese samenwerking, D: Staatsinrichting.</t>
+  </si>
+  <si>
+    <t>Historische context: China. Tijdvak 1 t/m 10</t>
+  </si>
+  <si>
+    <t>C: Propaganda, E</t>
   </si>
   <si>
     <t xml:space="preserve">Historische context: De Republiek en Verlichting. Tijdvak 1 t/m 7 </t>
@@ -1023,9 +1074,6 @@
   </si>
   <si>
     <t>Historische context: De Koude Oorlog. Tijdvak 1 t/m 10</t>
-  </si>
-  <si>
-    <t>C: Propaganda, E</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2125,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2223,7 +2271,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2577,7 +2625,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602349537</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2949,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -2966,7 +3014,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3011,7 +3059,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -3027,7 +3075,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -3039,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -3056,7 +3104,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3101,7 +3149,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -3117,7 +3165,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -3129,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3149,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3221,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -3238,7 +3286,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3283,7 +3331,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -3299,7 +3347,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -3311,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -3328,7 +3376,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -3373,7 +3421,7 @@
       </c>
       <c r="AB22" s="7">
         <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="7">
         <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
@@ -3389,7 +3437,7 @@
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
@@ -3646,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3663,10 +3711,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3738,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3755,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3830,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3847,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4533,7 +4581,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4887,7 +4935,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602349537</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5914,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5931,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6006,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -6023,10 +6071,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6098,7 +6146,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6115,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -7330,7 +7378,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7719,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -7811,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -7903,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -9596,7 +9644,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9968,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -9985,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -10077,7 +10125,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -10169,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -11362,7 +11410,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11508,7 +11556,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2">
         <v>966</v>
@@ -11518,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11538,7 +11586,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11616,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11633,7 +11681,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11678,7 +11726,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11694,7 +11742,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11712,7 +11760,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11731,10 +11779,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11813,7 +11861,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11830,7 +11878,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11875,7 +11923,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11891,7 +11939,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11900,7 +11948,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2">
         <v>970</v>
@@ -11910,7 +11958,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11929,10 +11977,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -13648,7 +13696,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13794,7 +13842,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2">
         <v>130</v>
@@ -13804,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -13824,7 +13872,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -13902,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -13919,7 +13967,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -13964,7 +14012,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -13980,7 +14028,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -13998,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14017,10 +14065,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14099,7 +14147,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14116,7 +14164,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14161,7 +14209,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -14177,7 +14225,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -14186,7 +14234,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602349537</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2">
         <v>134</v>
@@ -14196,7 +14244,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -14215,10 +14263,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14570,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14587,10 +14635,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14662,7 +14710,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14679,10 +14727,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14754,7 +14802,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14771,10 +14819,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16110,7 +16158,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16464,7 +16512,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602349537</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16836,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16853,10 +16901,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16928,7 +16976,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -16945,10 +16993,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17020,7 +17068,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17037,10 +17085,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -18230,7 +18278,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18376,7 +18424,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>979</v>
@@ -18386,24 +18434,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="45">
-        <v>30</v>
-      </c>
+      <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18448,7 +18494,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18464,7 +18510,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -18482,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -18499,7 +18545,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18544,7 +18590,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18560,7 +18606,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -18578,7 +18624,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -18595,7 +18641,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18640,7 +18686,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18656,7 +18702,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -18675,10 +18721,10 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I9" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>19</v>
@@ -18695,7 +18741,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -18764,17 +18810,17 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602349537</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2">
         <v>983</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -18791,7 +18837,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -18836,7 +18882,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -18852,7 +18898,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -18863,20 +18909,28 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>1109</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="45"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="45">
+        <v>3</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="45">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
@@ -20510,7 +20564,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -20656,7 +20710,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>138</v>
@@ -20666,7 +20720,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -20683,7 +20737,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20728,7 +20782,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -20744,7 +20798,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -20762,7 +20816,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -20779,7 +20833,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20824,7 +20878,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -20840,7 +20894,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -20858,7 +20912,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -20875,7 +20929,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -20920,7 +20974,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -20936,7 +20990,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -20955,7 +21009,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -20975,7 +21029,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -21044,7 +21098,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602349537</v>
+        <v>44385.633402778</v>
       </c>
       <c r="D10" s="2">
         <v>142</v>
@@ -21054,7 +21108,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -21071,7 +21125,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21116,7 +21170,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -21132,7 +21186,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -21424,7 +21478,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -21441,7 +21495,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21486,7 +21540,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -21502,7 +21556,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -21514,7 +21568,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -21531,7 +21585,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21576,7 +21630,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -21592,7 +21646,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -21604,7 +21658,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21624,7 +21678,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21696,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -21713,7 +21767,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -21758,7 +21812,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -21774,7 +21828,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -21786,7 +21840,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -21803,7 +21857,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -21848,7 +21902,7 @@
       </c>
       <c r="AB22" s="7">
         <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="7">
         <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
@@ -21864,7 +21918,7 @@
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/GS_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/GS_OPEN.xlsx
@@ -947,6 +947,9 @@
     <t>PW tijdvak 5 en 6</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tijdvak 5 t/m 8, Thema slavernij; Rechtsstaat </t>
   </si>
   <si>
@@ -960,9 +963,6 @@
   </si>
   <si>
     <t>A, B, C</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>Tijdvak 5 t/m 10, Thema Europese samenwerking</t>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766145833</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766145833</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11760,7 +11760,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11782,7 +11782,7 @@
         <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11861,7 +11861,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2">
         <v>970</v>
@@ -11958,7 +11958,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11980,7 +11980,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14046,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14068,7 +14068,7 @@
         <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14147,7 +14147,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2">
         <v>134</v>
@@ -14266,7 +14266,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18449,7 +18449,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18545,7 +18545,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2">
         <v>983</v>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -18934,7 +18934,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20833,7 +20833,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20929,7 +20929,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21098,7 +21098,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633402778</v>
+        <v>44387.766145833</v>
       </c>
       <c r="D10" s="2">
         <v>142</v>
@@ -21125,7 +21125,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21495,7 +21495,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21585,7 +21585,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21767,7 +21767,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -21857,7 +21857,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
